--- a/Donnees/Statistiques Démographiques et sociales/Santé/Infrastructures de Santé-Francais.xlsx
+++ b/Donnees/Statistiques Démographiques et sociales/Santé/Infrastructures de Santé-Francais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Ansade_Project\Donnees\Santé\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\2025\Annuaire des Statistiques Socio-démographiques_Edition 2025_VP\Atelier de Finalisation et Validation de l'Annuaire 2025\Portail DSDSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E30B85-17F7-4ACC-B689-EE514CC61683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C35EDF-8128-44CD-A5A7-AB486AFC7807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5856" yWindow="3384" windowWidth="17280" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centres de Santé" sheetId="2" r:id="rId1"/>
@@ -21,22 +21,25 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
-  <si>
-    <t>Source : Annuaires statistiques sanitaires/MS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Hodh echargui</t>
   </si>
   <si>
-    <t>Hodh El Garbi</t>
-  </si>
-  <si>
     <t>Assaba</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>Guidimagha</t>
   </si>
   <si>
-    <t>Tiris Zemour</t>
-  </si>
-  <si>
     <t>Inchiri</t>
   </si>
   <si>
@@ -79,9 +79,6 @@
     <t>Ensemble</t>
   </si>
   <si>
-    <t>Hodh Charghi</t>
-  </si>
-  <si>
     <t>Hodh El Gharbi</t>
   </si>
   <si>
@@ -97,17 +94,29 @@
     <t>-</t>
   </si>
   <si>
-    <t>Tableau : Evolution du nombre de centres de santé par Wilaya 2014-2024</t>
-  </si>
-  <si>
-    <t>Tableau : Evolution du nombre de poste de santé par Wilaya 2014-2024</t>
+    <t>Tiris Zemmour</t>
+  </si>
+  <si>
+    <t>Tableau : Evolution du nombre de centres de santé par Wilaya durant la période 2014-2024</t>
+  </si>
+  <si>
+    <t>Tableau : Evolution du nombre de postes de santé par Wilaya durant la période 2014-2024</t>
+  </si>
+  <si>
+    <t>Hodh Chargui</t>
+  </si>
+  <si>
+    <t>Source : Annuaires des Statistiques Sanitaires/MS</t>
+  </si>
+  <si>
+    <t>Wilaya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +150,11 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Sakkal Majalla"/>
     </font>
   </fonts>
   <fills count="3">
@@ -198,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -242,6 +256,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -526,26 +543,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24361140-DBD2-45F7-802A-5345D767F2C0}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="26.4" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="27" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
+    <col min="12" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -558,7 +575,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A2" s="5"/>
       <c r="B2" s="6">
         <v>2014</v>
@@ -591,9 +608,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="8">
         <v>9</v>
@@ -626,9 +643,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8">
         <v>7</v>
@@ -661,9 +678,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="8">
         <v>5</v>
@@ -696,9 +713,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="8">
         <v>5</v>
@@ -731,9 +748,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="8">
         <v>11</v>
@@ -766,9 +783,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8">
         <v>7</v>
@@ -801,9 +818,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8">
         <v>4</v>
@@ -836,9 +853,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="8">
         <v>8</v>
@@ -871,9 +888,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="8">
         <v>4</v>
@@ -906,9 +923,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="8">
         <v>5</v>
@@ -941,9 +958,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B13" s="8">
         <v>4</v>
@@ -976,9 +993,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="8">
         <v>2</v>
@@ -1011,12 +1028,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
         <v>5</v>
@@ -1046,12 +1063,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8">
         <v>7</v>
@@ -1081,12 +1098,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8">
         <v>9</v>
@@ -1116,9 +1133,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A18" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="12">
         <v>90</v>
@@ -1154,9 +1171,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A19" s="4" t="s">
-        <v>0</v>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A19" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1170,23 +1187,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C3478-CE4E-4B94-9D0B-152B7CDC098E}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="26.4" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="27" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="14.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.08984375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="14.453125" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
+    <col min="12" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1199,42 +1218,44 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="6">
         <v>2014</v>
       </c>
       <c r="C2" s="6">
         <v>2015</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>2016</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>2017</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>2018</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>2020</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>2021</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>2022</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>2023</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" s="8">
         <v>124</v>
@@ -1267,9 +1288,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8">
         <v>62</v>
@@ -1302,9 +1323,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="8">
         <v>82</v>
@@ -1337,9 +1358,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="8">
         <v>53</v>
@@ -1372,9 +1393,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="8">
         <v>78</v>
@@ -1407,9 +1428,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8">
         <v>91</v>
@@ -1442,9 +1463,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8">
         <v>27</v>
@@ -1477,9 +1498,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
@@ -1512,9 +1533,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="8">
         <v>24</v>
@@ -1547,9 +1568,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="8">
         <v>40</v>
@@ -1582,9 +1603,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -1617,9 +1638,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="8">
         <v>4</v>
@@ -1652,12 +1673,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
         <v>7</v>
@@ -1687,12 +1708,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8">
         <v>13</v>
@@ -1722,12 +1743,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8">
         <v>8</v>
@@ -1754,12 +1775,12 @@
         <v>9</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.9">
       <c r="A18" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="12">
         <f>SUM(B3:B17)</f>
@@ -1797,9 +1818,9 @@
         <v>912</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
-      <c r="A19" s="4" t="s">
-        <v>0</v>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.9">
+      <c r="A19" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
